--- a/tests/extraction_worklist.xlsx
+++ b/tests/extraction_worklist.xlsx
@@ -29,15 +29,21 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
+        <bgColor rgb="00C0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -51,15 +57,45 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,78 +461,311 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8.4" customWidth="1" min="1" max="1"/>
+    <col width="13.2" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="22.8" customWidth="1" min="4" max="4"/>
+    <col width="25.2" customWidth="1" min="5" max="5"/>
+    <col width="14.4" customWidth="1" min="6" max="6"/>
+    <col width="19.2" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Extraction worklist: test</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>plate</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>aliquoted</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>lysis</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>inhibitor removal</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>lysate distribution</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>extraction</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>gel extraction</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr"/>
+      <c r="C13" s="4" t="inlineStr"/>
+      <c r="D13" s="4" t="inlineStr"/>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="5" t="inlineStr"/>
+      <c r="G16" s="5" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="5" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr"/>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>